--- a/BackTest/2019-11-20 BackTest REP.xlsx
+++ b/BackTest/2019-11-20 BackTest REP.xlsx
@@ -451,17 +451,13 @@
         <v>12190</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>12220</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12220</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>12215</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>12210</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>12250</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>12280</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>12280</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>12290</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>12265</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>12320</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>12260</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>12260</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>12270</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>12280</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>12270</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>12280</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>12435</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>12320</v>
-      </c>
-      <c r="K10" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>12750</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>12530</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -883,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -924,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -962,17 +874,11 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1003,17 +909,11 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1044,17 +944,11 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1085,17 +979,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1252,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1293,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1375,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1416,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1454,17 +1294,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1498,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1539,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1577,19 +1399,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>12220</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>1.130842880523732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1723,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -2423,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2458,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2493,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2563,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -3645,13 +3461,17 @@
         <v>13820</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>13810</v>
+      </c>
+      <c r="K88" t="n">
+        <v>13810</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3686,8 +3506,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>13810</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3541,22 @@
         <v>13795</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K90" t="n">
+        <v>13810</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3785,13 +3619,17 @@
         <v>13860</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K92" t="n">
+        <v>13860</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3820,14 +3658,22 @@
         <v>13855</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K93" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3861,8 +3707,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3742,22 @@
         <v>13735</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>13730</v>
+      </c>
+      <c r="K95" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3925,14 +3785,22 @@
         <v>13745</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>13740</v>
+      </c>
+      <c r="K96" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3960,14 +3828,22 @@
         <v>13755</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>13750</v>
+      </c>
+      <c r="K97" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3995,14 +3871,22 @@
         <v>13765</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>13760</v>
+      </c>
+      <c r="K98" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4030,14 +3914,22 @@
         <v>13785</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>13770</v>
+      </c>
+      <c r="K99" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4065,14 +3957,22 @@
         <v>13785</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>13800</v>
+      </c>
+      <c r="K100" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4100,14 +4000,22 @@
         <v>13770</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>13770</v>
+      </c>
+      <c r="K101" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4135,14 +4043,22 @@
         <v>13770</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>13770</v>
+      </c>
+      <c r="K102" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4170,14 +4086,22 @@
         <v>13770</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>13770</v>
+      </c>
+      <c r="K103" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4205,14 +4129,22 @@
         <v>13770</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>13770</v>
+      </c>
+      <c r="K104" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4240,14 +4172,22 @@
         <v>13770</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>13770</v>
+      </c>
+      <c r="K105" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4275,14 +4215,22 @@
         <v>13715</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>13770</v>
+      </c>
+      <c r="K106" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +4258,22 @@
         <v>13760</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>13660</v>
+      </c>
+      <c r="K107" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4345,14 +4301,22 @@
         <v>13805</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>13860</v>
+      </c>
+      <c r="K108" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +4344,22 @@
         <v>13810</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>13750</v>
+      </c>
+      <c r="K109" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4415,14 +4387,22 @@
         <v>13805</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>13870</v>
+      </c>
+      <c r="K110" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4450,14 +4430,22 @@
         <v>13730</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>13740</v>
+      </c>
+      <c r="K111" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4485,14 +4473,22 @@
         <v>13760</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>13720</v>
+      </c>
+      <c r="K112" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4520,14 +4516,22 @@
         <v>13800</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>13800</v>
+      </c>
+      <c r="K113" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4555,14 +4559,22 @@
         <v>13790</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>13800</v>
+      </c>
+      <c r="K114" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4590,14 +4602,22 @@
         <v>13750</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>13780</v>
+      </c>
+      <c r="K115" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4625,14 +4645,22 @@
         <v>13745</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>13720</v>
+      </c>
+      <c r="K116" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4688,22 @@
         <v>13720</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>13770</v>
+      </c>
+      <c r="K117" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4695,14 +4731,22 @@
         <v>13670</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>13670</v>
+      </c>
+      <c r="K118" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4774,22 @@
         <v>13715</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>13670</v>
+      </c>
+      <c r="K119" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4765,14 +4817,22 @@
         <v>13760</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>13760</v>
+      </c>
+      <c r="K120" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4800,14 +4860,22 @@
         <v>13760</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>13760</v>
+      </c>
+      <c r="K121" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4835,14 +4903,22 @@
         <v>13770</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>13760</v>
+      </c>
+      <c r="K122" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4870,14 +4946,22 @@
         <v>13835</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>13780</v>
+      </c>
+      <c r="K123" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4905,14 +4989,22 @@
         <v>13880</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>13890</v>
+      </c>
+      <c r="K124" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4940,14 +5032,22 @@
         <v>13870</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>13870</v>
+      </c>
+      <c r="K125" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4981,8 +5081,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5016,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5051,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5086,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5121,8 +5245,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5156,8 +5286,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5191,8 +5327,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5226,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5261,8 +5409,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5296,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5331,8 +5491,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5366,8 +5532,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5401,8 +5573,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5436,8 +5614,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5471,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5506,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5541,8 +5737,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5576,8 +5778,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5611,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5646,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5681,8 +5901,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5716,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5751,8 +5983,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5786,8 +6024,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5821,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5856,8 +6106,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5891,8 +6147,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5926,8 +6188,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5961,8 +6229,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5996,8 +6270,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6311,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6060,14 +6346,22 @@
         <v>13835</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>13830</v>
+      </c>
+      <c r="K157" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6101,8 +6395,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6136,8 +6436,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6171,8 +6477,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6206,8 +6518,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6241,8 +6559,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6276,8 +6600,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6311,8 +6641,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6346,8 +6682,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6381,8 +6723,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6416,8 +6764,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6451,8 +6805,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6486,8 +6846,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6521,8 +6887,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6556,8 +6928,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6591,8 +6969,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6626,8 +7010,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +7051,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6696,8 +7092,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6731,8 +7133,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6766,8 +7174,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6801,8 +7215,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6833,13 +7253,19 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>13860</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M179" t="n">
-        <v>1</v>
+        <v>1.022417027417027</v>
       </c>
     </row>
     <row r="180">
@@ -10610,14 +11036,20 @@
         <v>13905</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>13940</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11084,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10687,7 +11123,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10722,7 +11162,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10757,7 +11201,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10792,7 +11240,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10827,7 +11279,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10862,7 +11318,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10897,7 +11357,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10932,7 +11396,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10967,7 +11435,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11002,7 +11474,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11037,7 +11513,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11072,7 +11552,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11107,7 +11591,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11142,7 +11630,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11177,7 +11669,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11212,7 +11708,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11247,7 +11747,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11282,7 +11786,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11317,7 +11825,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11352,7 +11864,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11387,7 +11903,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11422,7 +11942,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11457,7 +11981,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11492,7 +12020,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11527,7 +12059,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11562,7 +12098,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11597,7 +12137,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11632,7 +12176,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11667,7 +12215,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11702,7 +12254,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11737,7 +12293,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11772,7 +12332,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12371,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11842,7 +12410,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11877,7 +12449,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11912,7 +12488,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11947,7 +12527,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11982,7 +12566,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12017,7 +12605,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12052,7 +12644,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12087,7 +12683,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12122,7 +12722,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12157,7 +12761,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12192,7 +12800,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12227,7 +12839,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12262,7 +12878,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12297,7 +12917,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12332,7 +12956,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12367,7 +12995,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12402,7 +13034,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12437,7 +13073,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12472,7 +13112,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12507,7 +13151,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12542,7 +13190,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12577,7 +13229,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12612,7 +13268,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12647,7 +13307,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12682,7 +13346,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12717,7 +13385,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12752,7 +13424,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12787,7 +13463,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12822,7 +13502,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12857,7 +13541,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12892,7 +13580,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12927,7 +13619,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13658,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12997,7 +13697,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13032,7 +13736,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13067,7 +13775,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13102,7 +13814,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13137,7 +13853,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13172,7 +13892,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13207,7 +13931,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13242,7 +13970,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13277,7 +14009,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13312,7 +14048,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13347,7 +14087,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13382,7 +14126,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13417,7 +14165,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13452,7 +14204,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13487,7 +14243,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13522,7 +14282,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13557,7 +14321,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13592,7 +14360,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13627,7 +14399,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13662,7 +14438,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13697,7 +14477,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13732,7 +14516,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13767,7 +14555,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13802,7 +14594,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13837,7 +14633,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13872,7 +14672,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13907,7 +14711,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13942,7 +14750,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13977,7 +14789,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14012,7 +14828,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14047,7 +14867,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14082,7 +14906,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14945,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14152,7 +14984,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14187,7 +15023,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14222,7 +15062,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14257,7 +15101,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14292,7 +15140,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14327,7 +15179,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14362,7 +15218,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14397,7 +15257,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14432,7 +15296,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14467,7 +15335,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14502,7 +15374,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14537,7 +15413,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14572,7 +15452,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14607,7 +15491,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14642,7 +15530,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14677,7 +15569,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14712,7 +15608,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14747,7 +15647,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14782,7 +15686,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14817,7 +15725,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14852,7 +15764,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14887,7 +15803,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14922,7 +15842,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14957,7 +15881,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14992,7 +15920,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15027,7 +15959,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15062,7 +15998,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15097,7 +16037,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15132,7 +16076,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15167,7 +16115,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15202,7 +16154,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15237,7 +16193,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +16232,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15307,7 +16271,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15342,7 +16310,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15377,7 +16349,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15412,7 +16388,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15447,7 +16427,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15482,7 +16466,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15517,7 +16505,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15552,7 +16544,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15587,7 +16583,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15622,7 +16622,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15657,7 +16661,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15692,7 +16700,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15727,7 +16739,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15762,7 +16778,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15797,7 +16817,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15832,7 +16856,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15867,7 +16895,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -15902,7 +16934,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -15937,7 +16973,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -15972,7 +17012,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16007,7 +17051,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16042,7 +17090,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16077,7 +17129,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16112,7 +17168,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16147,7 +17207,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16182,7 +17246,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16217,7 +17285,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16252,7 +17324,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16287,7 +17363,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16322,7 +17402,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16357,7 +17441,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16392,7 +17480,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +17519,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16462,7 +17558,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16497,7 +17597,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16532,7 +17636,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16567,7 +17675,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16602,7 +17714,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16637,7 +17753,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16672,7 +17792,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16707,7 +17831,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16742,7 +17870,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16777,7 +17909,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16812,7 +17948,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16847,7 +17987,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16882,7 +18026,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16917,7 +18065,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -16952,7 +18104,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -16987,7 +18143,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17022,7 +18182,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17057,7 +18221,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17092,7 +18260,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17127,7 +18299,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17162,7 +18338,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17197,7 +18377,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17232,7 +18416,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17267,7 +18455,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17302,7 +18494,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17337,7 +18533,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17372,7 +18572,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17407,7 +18611,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17442,7 +18650,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17477,7 +18689,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17512,7 +18728,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17547,7 +18767,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +18806,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17617,7 +18845,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17652,7 +18884,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17687,7 +18923,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17722,7 +18962,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17757,7 +19001,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17792,7 +19040,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17827,7 +19079,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17862,7 +19118,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17897,7 +19157,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17932,7 +19196,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17967,7 +19235,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18002,7 +19274,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18037,7 +19313,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18072,7 +19352,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18107,7 +19391,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18142,7 +19430,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18177,7 +19469,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18212,7 +19508,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18247,7 +19547,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18282,7 +19586,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18317,7 +19625,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18352,7 +19664,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18387,7 +19703,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18422,7 +19742,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18457,7 +19781,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18492,7 +19820,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18527,7 +19859,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18562,7 +19898,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18597,7 +19937,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18632,7 +19976,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18667,7 +20015,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18702,7 +20054,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +20093,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18772,7 +20132,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18807,7 +20171,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18842,7 +20210,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18877,7 +20249,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18912,7 +20288,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18947,7 +20327,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18982,7 +20366,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19017,7 +20405,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19052,7 +20444,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19087,7 +20483,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19122,7 +20522,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19157,7 +20561,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19192,7 +20600,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19227,7 +20639,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19262,7 +20678,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19297,7 +20717,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19332,7 +20756,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19367,7 +20795,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19402,7 +20834,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19437,7 +20873,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19472,7 +20912,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19507,7 +20951,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19542,7 +20990,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19577,7 +21029,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19612,7 +21068,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19647,7 +21107,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19682,7 +21146,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19717,7 +21185,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19752,7 +21224,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19787,7 +21263,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19822,7 +21302,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19857,7 +21341,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +21380,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19927,7 +21419,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -19962,7 +21458,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19997,7 +21497,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20032,7 +21536,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20067,7 +21575,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20102,7 +21614,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20137,7 +21653,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20172,7 +21692,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20207,7 +21731,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20242,7 +21770,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20277,7 +21809,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20312,7 +21848,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20347,7 +21887,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20382,7 +21926,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20417,7 +21965,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20452,7 +22004,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20487,7 +22043,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20522,7 +22082,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20557,7 +22121,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20592,7 +22160,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20627,7 +22199,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20662,7 +22238,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20697,7 +22277,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20732,7 +22316,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20767,7 +22355,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -20802,7 +22394,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -20837,7 +22433,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -20872,7 +22472,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -20907,7 +22511,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -20942,7 +22550,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -20977,7 +22589,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21012,7 +22628,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +22667,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21082,7 +22706,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21117,7 +22745,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21152,7 +22784,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21187,7 +22823,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21222,7 +22862,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21257,7 +22901,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-20 BackTest REP.xlsx
+++ b/BackTest/2019-11-20 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>982.8963131386859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12050</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12050</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>982.8963131386859</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12060</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12050</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>12050</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +601,14 @@
         <v>975.6344131386859</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12050</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12050</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +638,19 @@
         <v>975.6344131386859</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11990</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12050</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,19 @@
         <v>928.9793131386859</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11990</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12050</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +720,14 @@
         <v>968.073913138686</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11970</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11970</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +757,19 @@
         <v>955.994913138686</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11980</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11970</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +798,19 @@
         <v>950.752713138686</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11960</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11970</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +839,14 @@
         <v>950.752713138686</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11920</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +876,19 @@
         <v>950.752713138686</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +917,19 @@
         <v>950.752713138686</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,10 +958,14 @@
         <v>950.752713138686</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11920</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +995,19 @@
         <v>950.752713138686</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1036,19 @@
         <v>950.752713138686</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,10 +1077,14 @@
         <v>925.752713138686</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11920</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1012,11 +1114,19 @@
         <v>915.8838896092742</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11910</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,12 +1155,14 @@
         <v>915.8838896092742</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>11900</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11920</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1084,10 +1196,14 @@
         <v>922.7770896092742</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11900</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11920</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1121,12 +1237,14 @@
         <v>933.1513896092741</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>11920</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11920</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1160,12 +1278,14 @@
         <v>918.9783896092741</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>11980</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>11920</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1199,12 +1319,14 @@
         <v>1004.375989609274</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>11920</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>11920</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1238,10 +1360,14 @@
         <v>973.4884896092741</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11930</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11920</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1275,12 +1401,14 @@
         <v>970.2038896092741</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>11910</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>11920</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1314,12 +1442,14 @@
         <v>970.2038896092741</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>11870</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>11920</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1353,12 +1483,14 @@
         <v>978.2468896092741</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>11870</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>11920</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1392,10 +1524,14 @@
         <v>962.2508896092742</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12080</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11920</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1429,10 +1565,14 @@
         <v>962.2508896092742</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11900</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11920</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1466,10 +1606,14 @@
         <v>962.2508896092742</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11900</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11920</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1503,12 +1647,14 @@
         <v>1169.907689609274</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>11900</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>11920</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1542,12 +1688,14 @@
         <v>1034.907689609274</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>11910</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>11920</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1581,12 +1729,14 @@
         <v>1191.907689609274</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>11900</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>11920</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1620,12 +1770,14 @@
         <v>1158.647689609274</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>11910</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>11920</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1659,12 +1811,14 @@
         <v>989.0622896092743</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>11900</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>11920</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1698,12 +1852,14 @@
         <v>989.0622896092743</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>11890</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11920</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1737,12 +1893,14 @@
         <v>898.0316896092743</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>11890</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11920</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1776,12 +1934,14 @@
         <v>1055.696152419192</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>11830</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>11920</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1815,12 +1975,14 @@
         <v>1130.248452419192</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>11920</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>11920</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1854,12 +2016,14 @@
         <v>1130.248452419192</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>11950</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11920</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1893,12 +2057,14 @@
         <v>1141.528652419192</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>11950</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11920</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1932,12 +2098,14 @@
         <v>1092.632752419192</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>12010</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11920</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1971,12 +2139,14 @@
         <v>1307.028177622444</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>11970</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11920</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,12 +2180,14 @@
         <v>1335.003177622444</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>12020</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11920</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2049,10 +2221,14 @@
         <v>1282.574177622444</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12030</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11920</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2086,10 +2262,14 @@
         <v>1282.574177622444</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12020</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11920</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2123,10 +2303,14 @@
         <v>1283.973177622443</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12020</v>
+      </c>
+      <c r="J48" t="n">
+        <v>11920</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,10 +2344,14 @@
         <v>1252.743177622443</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>12060</v>
+      </c>
+      <c r="J49" t="n">
+        <v>11920</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2197,12 +2385,14 @@
         <v>1205.870977622443</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>11980</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11920</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2236,12 +2426,14 @@
         <v>1344.475477622443</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>11970</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11920</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2275,12 +2467,14 @@
         <v>1344.475477622443</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>12050</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11920</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2314,10 +2508,14 @@
         <v>1344.475477622443</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12050</v>
+      </c>
+      <c r="J53" t="n">
+        <v>11920</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2351,10 +2549,14 @@
         <v>1482.356677622443</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12050</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11920</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2388,10 +2590,14 @@
         <v>1468.956677622443</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12100</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11920</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,10 +2631,14 @@
         <v>1454.380677622443</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12080</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11920</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2462,10 +2672,14 @@
         <v>1461.750677622443</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12060</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11920</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2499,10 +2713,14 @@
         <v>1444.805677622443</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>12120</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11920</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2536,10 +2754,14 @@
         <v>1475.911926551603</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12080</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11920</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,7 +2798,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11920</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2613,7 +2837,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11920</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2650,7 +2876,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11920</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2687,7 +2915,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11920</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,7 +2954,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11920</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2761,7 +2993,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11920</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,7 +3032,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11920</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2835,7 +3071,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11920</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,7 +3110,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11920</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2909,7 +3149,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11920</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,7 +3188,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11920</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2983,7 +3227,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11920</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3020,7 +3266,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11920</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3057,7 +3305,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11920</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3094,7 +3344,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11920</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3131,7 +3383,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11920</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,7 +3422,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11920</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3205,7 +3461,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11920</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,7 +3500,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11920</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,7 +3539,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11920</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,7 +3578,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11920</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,7 +3617,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11920</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,7 +3656,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11920</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,7 +3695,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11920</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,10 +3731,12 @@
         <v>6979.427614242598</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11920</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3501,7 +3773,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11920</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,7 +3812,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11920</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,7 +3851,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11920</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,7 +3890,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11920</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,7 +3929,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11920</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,7 +3968,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11920</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3723,7 +4007,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11920</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,7 +4046,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11920</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,7 +4085,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11920</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,7 +4124,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11920</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3871,7 +4163,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11920</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,10 +4199,12 @@
         <v>6039.745476062762</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11920</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,7 +4241,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11920</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,7 +4280,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11920</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,7 +4319,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11920</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,7 +4358,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11920</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4093,7 +4397,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11920</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,7 +4436,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11920</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4167,7 +4475,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11920</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4204,7 +4514,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11920</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,7 +4553,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11920</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4278,7 +4592,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11920</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,7 +4631,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11920</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4352,7 +4670,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11920</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,7 +4709,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11920</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,7 +4748,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11920</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,7 +4787,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11920</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4500,7 +4826,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11920</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4537,7 +4865,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11920</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4574,7 +4904,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11920</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,7 +4943,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11920</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4648,7 +4982,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11920</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4685,7 +5021,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11920</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,7 +5060,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11920</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4759,7 +5099,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11920</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,7 +5138,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11920</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4833,7 +5177,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11920</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,7 +5216,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11920</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4907,7 +5255,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11920</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,7 +5294,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11920</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4981,7 +5333,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11920</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,7 +5372,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11920</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5055,7 +5411,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11920</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5092,7 +5450,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11920</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5129,7 +5489,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11920</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,7 +5528,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>11920</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5203,7 +5567,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11920</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5240,7 +5606,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>11920</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5277,7 +5645,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11920</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5314,7 +5684,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11920</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5351,7 +5723,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11920</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5388,7 +5762,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11920</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,7 +5801,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>11920</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,7 +5840,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>11920</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5499,7 +5879,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>11920</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5536,7 +5918,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11920</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5573,7 +5957,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11920</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5610,7 +5996,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11920</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5647,7 +6035,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11920</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5684,7 +6074,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>11920</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5721,7 +6113,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11920</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5758,7 +6152,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11920</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5795,7 +6191,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11920</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5832,7 +6230,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>11920</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5869,7 +6269,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>11920</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,7 +6308,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>11920</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5943,7 +6347,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>11920</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5980,7 +6386,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>11920</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6017,7 +6425,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>11920</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6054,7 +6464,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>11920</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6091,7 +6503,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>11920</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6128,7 +6542,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>11920</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6165,7 +6581,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>11920</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,7 +6620,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>11920</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6239,7 +6659,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>11920</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,7 +6698,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>11920</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6313,7 +6737,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>11920</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6350,7 +6776,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>11920</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6387,7 +6815,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>11920</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,7 +6854,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>11920</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,7 +6893,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>11920</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6498,7 +6932,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>11920</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,7 +6971,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>11920</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6572,7 +7010,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>11920</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6609,7 +7049,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>11920</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6646,7 +7088,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>11920</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6683,7 +7127,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>11920</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6720,7 +7166,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>11920</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,7 +7205,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>11920</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,7 +7244,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>11920</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,7 +7283,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>11920</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,7 +7322,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>11920</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6905,7 +7361,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>11920</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6942,7 +7400,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>11920</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6979,7 +7439,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>11920</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7016,7 +7478,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>11920</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7053,7 +7517,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>11920</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,7 +7556,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>11920</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7127,7 +7595,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>11920</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7164,7 +7634,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>11920</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7201,7 +7673,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>11920</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7238,7 +7712,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>11920</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,7 +7751,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>11920</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,7 +7790,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>11920</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7349,7 +7829,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>11920</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7386,7 +7868,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>11920</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7423,7 +7907,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>11920</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7460,7 +7946,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>11920</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7497,7 +7985,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>11920</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7534,7 +8024,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>11920</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,7 +8063,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>11920</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7608,7 +8102,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>11920</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,7 +8141,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>11920</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,7 +8180,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>11920</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7719,7 +8219,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>11920</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,7 +8258,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>11920</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7793,7 +8297,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>11920</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7830,7 +8336,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>11920</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7867,7 +8375,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>11920</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,7 +8414,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>11920</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,7 +8453,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>11920</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7978,7 +8492,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>11920</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8015,7 +8531,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>11920</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8052,7 +8570,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>11920</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8089,7 +8609,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>11920</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8126,7 +8648,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>11920</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8163,7 +8687,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>11920</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8200,7 +8726,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>11920</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8237,7 +8765,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>11920</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8274,7 +8804,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>11920</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8311,7 +8843,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>11920</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,7 +8882,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>11920</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,7 +8921,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>11920</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8422,7 +8960,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>11920</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8459,7 +8999,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>11920</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8496,7 +9038,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>11920</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8533,7 +9077,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>11920</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,7 +9116,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>11920</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,7 +9155,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>11920</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8644,7 +9194,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>11920</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8681,7 +9233,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>11920</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8718,7 +9272,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>11920</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,7 +9311,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>11920</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8792,7 +9350,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>11920</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8826,16 +9386,20 @@
         <v>12228.68743126068</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>11920</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
       <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
@@ -8861,11 +9425,17 @@
         <v>12112.52893126068</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8894,11 +9464,17 @@
         <v>12126.12893126068</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8927,11 +9503,17 @@
         <v>12132.82693126068</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8960,11 +9542,17 @@
         <v>12384.80803126068</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8993,11 +9581,17 @@
         <v>12060.55943126068</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9026,15 +9620,23 @@
         <v>12338.36813126068</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>1.194664429530201</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1.01344537815126</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9059,7 +9661,7 @@
         <v>14797.71963126068</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9092,7 +9694,7 @@
         <v>14080.74563126068</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9125,7 +9727,7 @@
         <v>13861.02713126068</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9158,7 +9760,7 @@
         <v>13892.75843126068</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9191,7 +9793,7 @@
         <v>13819.22933126068</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9224,7 +9826,7 @@
         <v>14583.86003126068</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9257,7 +9859,7 @@
         <v>15272.33831907552</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9290,7 +9892,7 @@
         <v>15193.81771907552</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9323,7 +9925,7 @@
         <v>14367.49361907552</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9356,7 +9958,7 @@
         <v>15944.80761907552</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9389,7 +9991,7 @@
         <v>15469.06691907552</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9422,7 +10024,7 @@
         <v>15469.06691907552</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9455,7 +10057,7 @@
         <v>15593.56845115999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9488,7 +10090,7 @@
         <v>15995.42095115999</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9521,7 +10123,7 @@
         <v>15916.34245006709</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9554,7 +10156,7 @@
         <v>16198.98735006709</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9587,7 +10189,7 @@
         <v>16672.56895006709</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9620,7 +10222,7 @@
         <v>16475.30045006709</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9653,7 +10255,7 @@
         <v>16554.7374500671</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9686,7 +10288,7 @@
         <v>15957.0519500671</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9719,7 +10321,7 @@
         <v>16043.78309554636</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9752,7 +10354,7 @@
         <v>15798.12509554636</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9785,7 +10387,7 @@
         <v>14878.16019554636</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9818,7 +10420,7 @@
         <v>14878.16019554636</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9851,7 +10453,7 @@
         <v>14349.48289554636</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9884,7 +10486,7 @@
         <v>13582.30950035736</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9917,7 +10519,7 @@
         <v>13506.82090035736</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9950,7 +10552,7 @@
         <v>13321.10670035736</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9983,7 +10585,7 @@
         <v>12733.20440035736</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10016,7 +10618,7 @@
         <v>13355.99990035736</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10049,7 +10651,7 @@
         <v>12825.71583255248</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10148,7 +10750,7 @@
         <v>12960.90453255248</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10181,7 +10783,7 @@
         <v>12966.24143255248</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10214,7 +10816,7 @@
         <v>13063.90196984901</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10247,7 +10849,7 @@
         <v>13058.74416984901</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10280,7 +10882,7 @@
         <v>13389.97196984901</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10313,7 +10915,7 @@
         <v>13821.40476984901</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10346,7 +10948,7 @@
         <v>13821.40476984901</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10379,7 +10981,7 @@
         <v>13799.60866984901</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10412,7 +11014,7 @@
         <v>14325.64796984901</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10478,7 +11080,7 @@
         <v>14295.10466984902</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10511,7 +11113,7 @@
         <v>14388.91086984902</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10940,7 +11542,7 @@
         <v>12375.70076984902</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10973,7 +11575,7 @@
         <v>12524.06416984902</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11006,7 +11608,7 @@
         <v>12310.42916984902</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11039,7 +11641,7 @@
         <v>12292.42806984902</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11072,7 +11674,7 @@
         <v>11895.44846984902</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11105,7 +11707,7 @@
         <v>12028.08146984902</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11138,7 +11740,7 @@
         <v>11891.72656984902</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11171,7 +11773,7 @@
         <v>12307.89406984902</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11204,7 +11806,7 @@
         <v>12223.60616984902</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11237,7 +11839,7 @@
         <v>12370.33916984902</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11270,7 +11872,7 @@
         <v>12546.88966984902</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11303,7 +11905,7 @@
         <v>12879.71946984901</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11336,7 +11938,7 @@
         <v>12947.65896984902</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11369,7 +11971,7 @@
         <v>12947.65896984902</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11402,7 +12004,7 @@
         <v>13366.15976984901</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11435,7 +12037,7 @@
         <v>13465.80816984902</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11468,7 +12070,7 @@
         <v>13459.16646984901</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11501,7 +12103,7 @@
         <v>13547.19216984902</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11534,7 +12136,7 @@
         <v>13535.98386984901</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11567,7 +12169,7 @@
         <v>13536.08386984902</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11600,7 +12202,7 @@
         <v>13516.41051523901</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11633,7 +12235,7 @@
         <v>13396.30491523901</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11666,7 +12268,7 @@
         <v>13396.30491523901</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11732,7 +12334,7 @@
         <v>13396.30491523901</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11798,7 +12400,7 @@
         <v>13396.30491523901</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11864,7 +12466,7 @@
         <v>13431.58551523901</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11897,7 +12499,7 @@
         <v>13427.74741523901</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11930,7 +12532,7 @@
         <v>13427.74741523901</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11963,7 +12565,7 @@
         <v>13355.47141523901</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11996,7 +12598,7 @@
         <v>13367.74741523901</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12029,7 +12631,7 @@
         <v>12603.04591523901</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12062,7 +12664,7 @@
         <v>12741.80681523901</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12095,7 +12697,7 @@
         <v>12762.99341523901</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12128,7 +12730,7 @@
         <v>12757.93761523901</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12161,7 +12763,7 @@
         <v>13411.88851523901</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12194,7 +12796,7 @@
         <v>13247.94251523901</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12227,7 +12829,7 @@
         <v>13203.08861523901</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12260,7 +12862,7 @@
         <v>13256.94001523901</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12326,7 +12928,7 @@
         <v>13605.72711523901</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12359,7 +12961,7 @@
         <v>13475.84921523901</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12656,7 +13258,7 @@
         <v>13416.87861523901</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12689,7 +13291,7 @@
         <v>13288.32261523901</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12722,7 +13324,7 @@
         <v>13295.21701523901</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12788,7 +13390,7 @@
         <v>12712.03891523901</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12821,7 +13423,7 @@
         <v>12686.47471523901</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12854,7 +13456,7 @@
         <v>12690.13421523901</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12887,7 +13489,7 @@
         <v>12689.80051523901</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12953,7 +13555,7 @@
         <v>12721.97831523901</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13382,7 +13984,7 @@
         <v>13137.31911523901</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13415,7 +14017,7 @@
         <v>13134.23811523901</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13448,7 +14050,7 @@
         <v>13086.61081523901</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13481,7 +14083,7 @@
         <v>13086.61081523901</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13712,7 +14314,7 @@
         <v>13471.92871523901</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13778,7 +14380,7 @@
         <v>11417.90945467563</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13811,7 +14413,7 @@
         <v>11431.46785467563</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13844,7 +14446,7 @@
         <v>11320.13805467563</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13877,7 +14479,7 @@
         <v>11175.76915467563</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13943,7 +14545,7 @@
         <v>11114.14965467563</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13976,7 +14578,7 @@
         <v>10227.56715467563</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14009,7 +14611,7 @@
         <v>10240.96715467563</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14042,7 +14644,7 @@
         <v>10145.17255467563</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14075,7 +14677,7 @@
         <v>10260.91465467563</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14108,7 +14710,7 @@
         <v>10285.50545467563</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14141,7 +14743,7 @@
         <v>10282.74195467563</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14174,7 +14776,7 @@
         <v>10390.43385467563</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14207,7 +14809,7 @@
         <v>10390.43385467563</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14240,7 +14842,7 @@
         <v>10569.33915467563</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14306,7 +14908,7 @@
         <v>10634.05625467563</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14372,7 +14974,7 @@
         <v>10902.97445467563</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14405,7 +15007,7 @@
         <v>10914.61925467563</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14438,7 +15040,7 @@
         <v>10914.65515467563</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14471,7 +15073,7 @@
         <v>10914.65515467563</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14504,7 +15106,7 @@
         <v>10914.65515467563</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14537,7 +15139,7 @@
         <v>10914.86405467563</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14570,7 +15172,7 @@
         <v>10811.10745467563</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14603,7 +15205,7 @@
         <v>11874.46495467563</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14636,7 +15238,7 @@
         <v>11874.50185467563</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14669,7 +15271,7 @@
         <v>11737.83985467563</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14702,7 +15304,7 @@
         <v>11834.31755467563</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14768,7 +15370,7 @@
         <v>11888.23885467563</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14801,7 +15403,7 @@
         <v>11888.23885467563</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14834,7 +15436,7 @@
         <v>11905.99845467563</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14867,7 +15469,7 @@
         <v>11934.93555467563</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14900,7 +15502,7 @@
         <v>11630.67935467563</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14999,7 +15601,7 @@
         <v>11726.14355467563</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15032,7 +15634,7 @@
         <v>11726.14355467563</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15065,7 +15667,7 @@
         <v>11624.31055467563</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15098,7 +15700,7 @@
         <v>11624.31055467563</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15131,7 +15733,7 @@
         <v>11665.08295467563</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15164,7 +15766,7 @@
         <v>11658.18645467563</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15197,7 +15799,7 @@
         <v>11594.01415467563</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15230,7 +15832,7 @@
         <v>11594.01415467563</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15263,7 +15865,7 @@
         <v>11540.97375467563</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15296,7 +15898,7 @@
         <v>11394.49615467563</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15329,7 +15931,7 @@
         <v>11394.49615467563</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15362,7 +15964,7 @@
         <v>11410.71575467563</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15395,7 +15997,7 @@
         <v>11410.71575467563</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15428,7 +16030,7 @@
         <v>11406.29495467563</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15461,7 +16063,7 @@
         <v>11406.29495467563</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15494,7 +16096,7 @@
         <v>11407.29495467563</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15527,7 +16129,7 @@
         <v>11364.46445467563</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15560,7 +16162,7 @@
         <v>11364.46445467563</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15593,7 +16195,7 @@
         <v>11476.96455467563</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15626,7 +16228,7 @@
         <v>11473.96455467563</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15659,7 +16261,7 @@
         <v>11473.96455467563</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15692,7 +16294,7 @@
         <v>11473.96455467563</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15725,7 +16327,7 @@
         <v>11471.96455467563</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15758,7 +16360,7 @@
         <v>11401.40175467563</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15791,7 +16393,7 @@
         <v>11883.10725467563</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15824,7 +16426,7 @@
         <v>11837.76805467563</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15857,7 +16459,7 @@
         <v>11903.76805467563</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15890,7 +16492,7 @@
         <v>11875.13925467563</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15923,7 +16525,7 @@
         <v>11818.53965467563</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15956,7 +16558,7 @@
         <v>11824.7923127216</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15989,7 +16591,7 @@
         <v>11794.7923127216</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16022,7 +16624,7 @@
         <v>11794.8323127216</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16055,7 +16657,7 @@
         <v>11794.8323127216</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16088,7 +16690,7 @@
         <v>11794.4223127216</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16121,7 +16723,7 @@
         <v>11766.0873127216</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16352,7 +16954,7 @@
         <v>13047.21431272161</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16385,7 +16987,7 @@
         <v>13047.21431272161</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16484,7 +17086,7 @@
         <v>12984.04901272161</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17540,7 +18142,7 @@
         <v>12060.99374024758</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17606,7 +18208,7 @@
         <v>12073.05894024758</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17804,7 +18406,7 @@
         <v>12075.01597112951</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17837,7 +18439,7 @@
         <v>12064.77157112951</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17870,7 +18472,7 @@
         <v>11884.72657112951</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17903,7 +18505,7 @@
         <v>11884.72657112951</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17936,7 +18538,7 @@
         <v>11994.58747112951</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17969,7 +18571,7 @@
         <v>11994.58747112951</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18002,7 +18604,7 @@
         <v>12036.42927112951</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18035,7 +18637,7 @@
         <v>11945.04777112951</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18068,7 +18670,7 @@
         <v>11945.04777112951</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18299,7 +18901,7 @@
         <v>11945.04777112951</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18398,7 +19000,7 @@
         <v>12151.89527112951</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18431,7 +19033,7 @@
         <v>12152.89527112951</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18464,7 +19066,7 @@
         <v>12152.89527112951</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18497,7 +19099,7 @@
         <v>12152.89527112951</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18530,7 +19132,7 @@
         <v>12170.58407112951</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18563,7 +19165,7 @@
         <v>12173.84147112951</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18596,7 +19198,7 @@
         <v>12270.59724575424</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18629,7 +19231,7 @@
         <v>11838.66234575424</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18662,7 +19264,7 @@
         <v>11870.01874575424</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18695,7 +19297,7 @@
         <v>11159.05532037897</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18728,7 +19330,7 @@
         <v>11280.14942037897</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18761,7 +19363,7 @@
         <v>11310.64822037897</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18794,7 +19396,7 @@
         <v>11310.64822037897</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18827,7 +19429,7 @@
         <v>11310.64822037897</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18860,7 +19462,7 @@
         <v>11310.46822037897</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18893,7 +19495,7 @@
         <v>11480.04782037897</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18926,7 +19528,7 @@
         <v>11406.10442037897</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18959,7 +19561,7 @@
         <v>11471.26502037897</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18992,7 +19594,7 @@
         <v>11471.26502037897</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19025,7 +19627,7 @@
         <v>11471.26502037897</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19058,7 +19660,7 @@
         <v>11507.25252037897</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19091,7 +19693,7 @@
         <v>11507.25252037897</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19124,7 +19726,7 @@
         <v>11530.05252037897</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19157,7 +19759,7 @@
         <v>11682.33152037897</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19190,7 +19792,7 @@
         <v>11504.59624352062</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19223,7 +19825,7 @@
         <v>11742.7140928281</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19256,7 +19858,7 @@
         <v>11457.48216485026</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19289,7 +19891,7 @@
         <v>11229.98026485026</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19322,7 +19924,7 @@
         <v>11097.20236485026</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19355,7 +19957,7 @@
         <v>11231.96016485026</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19388,7 +19990,7 @@
         <v>12287.60896485026</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19421,7 +20023,7 @@
         <v>12114.78996485026</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19454,7 +20056,7 @@
         <v>12369.64916485027</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19487,7 +20089,7 @@
         <v>12164.33406485027</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19520,7 +20122,7 @@
         <v>11966.61586485027</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19553,7 +20155,7 @@
         <v>12057.82986485027</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19586,7 +20188,7 @@
         <v>12288.03376485027</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19619,7 +20221,7 @@
         <v>12356.49506485027</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19652,7 +20254,7 @@
         <v>12031.22766485027</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19685,7 +20287,7 @@
         <v>12290.85836485027</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19718,7 +20320,7 @@
         <v>12267.01736485027</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19751,7 +20353,7 @@
         <v>12329.26696485027</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19784,7 +20386,7 @@
         <v>12226.02176485027</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19817,7 +20419,7 @@
         <v>12330.88346485027</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19850,7 +20452,7 @@
         <v>12330.88346485027</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19883,7 +20485,7 @@
         <v>12330.88346485027</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19916,7 +20518,7 @@
         <v>12174.22656485027</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19949,7 +20551,7 @@
         <v>12159.31836485027</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19982,7 +20584,7 @@
         <v>12159.31836485027</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20015,7 +20617,7 @@
         <v>12155.19836485026</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20048,7 +20650,7 @@
         <v>11441.86086485026</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20081,7 +20683,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20114,7 +20716,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20147,7 +20749,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20180,7 +20782,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20213,7 +20815,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20246,7 +20848,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20279,7 +20881,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20312,7 +20914,7 @@
         <v>11107.47316485027</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20345,7 +20947,7 @@
         <v>11107.47316485027</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20378,7 +20980,7 @@
         <v>10841.72866485026</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20411,7 +21013,7 @@
         <v>10790.58326485027</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20444,7 +21046,7 @@
         <v>10588.29756485027</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20477,7 +21079,7 @@
         <v>10629.20116485026</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20510,7 +21112,7 @@
         <v>10629.20116485026</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20543,7 +21145,7 @@
         <v>10524.53736485026</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20576,7 +21178,7 @@
         <v>10525.37546485027</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20609,7 +21211,7 @@
         <v>10308.24226485027</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20642,7 +21244,7 @@
         <v>10313.28906485027</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20675,7 +21277,7 @@
         <v>10308.28916485026</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20708,7 +21310,7 @@
         <v>10312.55486485026</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20741,7 +21343,7 @@
         <v>10362.55496485026</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20774,7 +21376,7 @@
         <v>10397.22786485026</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20807,7 +21409,7 @@
         <v>10375.79576485026</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20840,7 +21442,7 @@
         <v>9730.061664850264</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20873,7 +21475,7 @@
         <v>9751.085964850263</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20906,7 +21508,7 @@
         <v>9573.665464850263</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20939,7 +21541,7 @@
         <v>9621.535364850262</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20972,7 +21574,7 @@
         <v>9810.660764850263</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21005,7 +21607,7 @@
         <v>9810.660764850263</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21038,7 +21640,7 @@
         <v>9826.915764850262</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21104,7 +21706,7 @@
         <v>9675.959564850264</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21170,7 +21772,7 @@
         <v>10111.11956485026</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21203,7 +21805,7 @@
         <v>10111.11956485026</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21236,7 +21838,7 @@
         <v>10165.46823654301</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21269,7 +21871,7 @@
         <v>10165.46823654301</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21302,7 +21904,7 @@
         <v>10165.46823654301</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21335,7 +21937,7 @@
         <v>10165.46823654301</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21368,7 +21970,7 @@
         <v>10161.14533654301</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21434,7 +22036,7 @@
         <v>10123.72323654301</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21467,7 +22069,7 @@
         <v>10145.48363654301</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21500,7 +22102,7 @@
         <v>10137.38213654301</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23062,6 +23664,6 @@
       <c r="M660" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest REP.xlsx
+++ b/BackTest/2019-11-20 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>982.8963131386859</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12050</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,333 +517,287 @@
         <v>982.8963131386859</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12060</v>
-      </c>
-      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>12050</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>12050</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12050</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12050</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.136</v>
+      </c>
+      <c r="G5" t="n">
+        <v>977.7603131386859</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11990</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11990</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11990</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11990</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.1259</v>
+      </c>
+      <c r="G6" t="n">
+        <v>975.6344131386859</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11990</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11990</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11990</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11990</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50.7232</v>
+      </c>
+      <c r="G7" t="n">
+        <v>975.6344131386859</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11970</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11970</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11970</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11970</v>
+      </c>
+      <c r="F8" t="n">
+        <v>46.6551</v>
+      </c>
+      <c r="G8" t="n">
+        <v>928.9793131386859</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11990</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11980</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11990</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11980</v>
+      </c>
+      <c r="F9" t="n">
+        <v>39.0946</v>
+      </c>
+      <c r="G9" t="n">
+        <v>968.073913138686</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11960</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11960</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11960</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11960</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.079</v>
+      </c>
+      <c r="G10" t="n">
+        <v>955.994913138686</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11920</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11920</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11920</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11920</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.2422</v>
+      </c>
+      <c r="G11" t="n">
+        <v>950.752713138686</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11960</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11960</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11920</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11920</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11920</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11920</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.179</v>
+      </c>
+      <c r="G12" t="n">
+        <v>950.752713138686</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11960</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12050</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12050</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12050</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12050</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.136</v>
-      </c>
-      <c r="G5" t="n">
-        <v>977.7603131386859</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>12050</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11990</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11990</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11990</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11990</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.1259</v>
-      </c>
-      <c r="G6" t="n">
-        <v>975.6344131386859</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12050</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12050</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11990</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11990</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11990</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11990</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50.7232</v>
-      </c>
-      <c r="G7" t="n">
-        <v>975.6344131386859</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11990</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12050</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11970</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11970</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11970</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11970</v>
-      </c>
-      <c r="F8" t="n">
-        <v>46.6551</v>
-      </c>
-      <c r="G8" t="n">
-        <v>928.9793131386859</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11990</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12050</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11990</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11980</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11990</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11980</v>
-      </c>
-      <c r="F9" t="n">
-        <v>39.0946</v>
-      </c>
-      <c r="G9" t="n">
-        <v>968.073913138686</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11970</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11970</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11960</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11960</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11960</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11960</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12.079</v>
-      </c>
-      <c r="G10" t="n">
-        <v>955.994913138686</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11980</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11970</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11920</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11920</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11920</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11920</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.2422</v>
-      </c>
-      <c r="G11" t="n">
-        <v>950.752713138686</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11960</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11970</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11920</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11920</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11920</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11920</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.179</v>
-      </c>
-      <c r="G12" t="n">
-        <v>950.752713138686</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11920</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,7 +832,7 @@
         <v>11920</v>
       </c>
       <c r="J13" t="n">
-        <v>11920</v>
+        <v>11960</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -925,48 +875,48 @@
       <c r="J14" t="n">
         <v>11920</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11920</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11920</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11920</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11920</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.281</v>
+      </c>
+      <c r="G15" t="n">
+        <v>950.752713138686</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>11920</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11920</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11920</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11920</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="G15" t="n">
-        <v>950.752713138686</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11920</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1044,48 +994,48 @@
       <c r="J17" t="n">
         <v>11920</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11910</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11910</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11910</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11910</v>
+      </c>
+      <c r="F18" t="n">
+        <v>25</v>
+      </c>
+      <c r="G18" t="n">
+        <v>925.752713138686</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11920</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11920</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>11910</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11910</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11910</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11910</v>
-      </c>
-      <c r="F18" t="n">
-        <v>25</v>
-      </c>
-      <c r="G18" t="n">
-        <v>925.752713138686</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11920</v>
-      </c>
-      <c r="J18" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -2467,11 +2417,9 @@
         <v>1344.475477622443</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>11920</v>
       </c>
@@ -2508,11 +2456,9 @@
         <v>1344.475477622443</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>11920</v>
       </c>
@@ -2549,11 +2495,9 @@
         <v>1482.356677622443</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>11920</v>
       </c>
@@ -2590,11 +2534,9 @@
         <v>1468.956677622443</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>11920</v>
       </c>
@@ -2631,11 +2573,9 @@
         <v>1454.380677622443</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>12080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>11920</v>
       </c>
@@ -2672,11 +2612,9 @@
         <v>1461.750677622443</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>12060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>11920</v>
       </c>
@@ -2713,11 +2651,9 @@
         <v>1444.805677622443</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>12120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>11920</v>
       </c>
@@ -2754,11 +2690,9 @@
         <v>1475.911926551603</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>12080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>11920</v>
       </c>
@@ -3380,7 +3314,7 @@
         <v>5173.548606407719</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
@@ -3388,13 +3322,15 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>1.093993288590604</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.01344537815126</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3419,17 +3355,11 @@
         <v>5449.272806407718</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3458,17 +3388,11 @@
         <v>5921.328806407718</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3497,17 +3421,11 @@
         <v>4984.547506407718</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3539,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3578,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3614,17 +3520,11 @@
         <v>7954.192206407718</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3656,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3695,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3773,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3812,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4202,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4238,17 +4048,11 @@
         <v>6346.285876062761</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4280,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4319,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4397,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4436,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4475,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4514,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4550,17 +4312,11 @@
         <v>7190.193683437394</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4589,17 +4345,11 @@
         <v>7769.618383437393</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4628,17 +4378,11 @@
         <v>8650.232683437393</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4667,17 +4411,11 @@
         <v>9107.316583437392</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4709,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4748,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4787,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4826,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4865,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4904,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4940,17 +4642,11 @@
         <v>10096.54078343739</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4979,17 +4675,11 @@
         <v>10389.51358343739</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5018,17 +4708,11 @@
         <v>10283.03758343739</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5060,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5099,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5138,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5177,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5255,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5333,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5372,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5411,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5489,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5528,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5567,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5606,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5645,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5684,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5723,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5762,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5801,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5840,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5879,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5918,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5957,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5996,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6035,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6074,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6113,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6152,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6191,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6230,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6269,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6308,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6347,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6386,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6425,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6464,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6542,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6581,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6620,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6659,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6737,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6776,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6815,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6854,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6932,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6971,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7010,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7049,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7088,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7127,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7166,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7205,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7283,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7322,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7361,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7400,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7439,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7517,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7556,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7595,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7634,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7673,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7712,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7751,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7790,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7829,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7868,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7907,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7946,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7985,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8063,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8102,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8141,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8219,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8258,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8297,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8336,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8375,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8414,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8453,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8492,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8531,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8570,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8609,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8648,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8687,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8726,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8765,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8804,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8843,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8882,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8921,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8960,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8999,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9038,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9077,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9116,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9155,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9194,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9233,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9272,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9311,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9350,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9389,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9428,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9467,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9506,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9545,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9584,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9620,23 +8602,15 @@
         <v>12338.36813126068</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>11920</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
-        <v>1.194664429530201</v>
-      </c>
-      <c r="M235" t="n">
-        <v>1.01344537815126</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9661,7 +8635,7 @@
         <v>14797.71963126068</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9892,7 +8866,7 @@
         <v>15193.81771907552</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9925,7 +8899,7 @@
         <v>14367.49361907552</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9958,7 +8932,7 @@
         <v>15944.80761907552</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9991,7 +8965,7 @@
         <v>15469.06691907552</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10024,7 +8998,7 @@
         <v>15469.06691907552</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10057,7 +9031,7 @@
         <v>15593.56845115999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10090,7 +9064,7 @@
         <v>15995.42095115999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10123,7 +9097,7 @@
         <v>15916.34245006709</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10156,7 +9130,7 @@
         <v>16198.98735006709</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10189,7 +9163,7 @@
         <v>16672.56895006709</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10222,7 +9196,7 @@
         <v>16475.30045006709</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10255,7 +9229,7 @@
         <v>16554.7374500671</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10288,7 +9262,7 @@
         <v>15957.0519500671</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10321,7 +9295,7 @@
         <v>16043.78309554636</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10354,7 +9328,7 @@
         <v>15798.12509554636</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10387,7 +9361,7 @@
         <v>14878.16019554636</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10420,7 +9394,7 @@
         <v>14878.16019554636</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10453,7 +9427,7 @@
         <v>14349.48289554636</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10486,7 +9460,7 @@
         <v>13582.30950035736</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10519,7 +9493,7 @@
         <v>13506.82090035736</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10552,7 +9526,7 @@
         <v>13321.10670035736</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10585,7 +9559,7 @@
         <v>12733.20440035736</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10618,7 +9592,7 @@
         <v>13355.99990035736</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10651,7 +9625,7 @@
         <v>12825.71583255248</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10750,7 +9724,7 @@
         <v>12960.90453255248</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10783,7 +9757,7 @@
         <v>12966.24143255248</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10816,7 +9790,7 @@
         <v>13063.90196984901</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10849,7 +9823,7 @@
         <v>13058.74416984901</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10882,7 +9856,7 @@
         <v>13389.97196984901</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10915,7 +9889,7 @@
         <v>13821.40476984901</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10948,7 +9922,7 @@
         <v>13821.40476984901</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10981,7 +9955,7 @@
         <v>13799.60866984901</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11014,7 +9988,7 @@
         <v>14325.64796984901</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11080,7 +10054,7 @@
         <v>14295.10466984902</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11113,7 +10087,7 @@
         <v>14388.91086984902</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11542,7 +10516,7 @@
         <v>12375.70076984902</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11575,7 +10549,7 @@
         <v>12524.06416984902</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11608,7 +10582,7 @@
         <v>12310.42916984902</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11641,7 +10615,7 @@
         <v>12292.42806984902</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11674,7 +10648,7 @@
         <v>11895.44846984902</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11707,7 +10681,7 @@
         <v>12028.08146984902</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11740,7 +10714,7 @@
         <v>11891.72656984902</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11773,7 +10747,7 @@
         <v>12307.89406984902</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11806,7 +10780,7 @@
         <v>12223.60616984902</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11839,7 +10813,7 @@
         <v>12370.33916984902</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11872,7 +10846,7 @@
         <v>12546.88966984902</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11905,7 +10879,7 @@
         <v>12879.71946984901</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11938,7 +10912,7 @@
         <v>12947.65896984902</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11971,7 +10945,7 @@
         <v>12947.65896984902</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12004,7 +10978,7 @@
         <v>13366.15976984901</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12037,7 +11011,7 @@
         <v>13465.80816984902</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12070,7 +11044,7 @@
         <v>13459.16646984901</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12103,7 +11077,7 @@
         <v>13547.19216984902</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12136,7 +11110,7 @@
         <v>13535.98386984901</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12169,7 +11143,7 @@
         <v>13536.08386984902</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12202,7 +11176,7 @@
         <v>13516.41051523901</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12235,7 +11209,7 @@
         <v>13396.30491523901</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12268,7 +11242,7 @@
         <v>13396.30491523901</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12334,7 +11308,7 @@
         <v>13396.30491523901</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12400,7 +11374,7 @@
         <v>13396.30491523901</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12466,7 +11440,7 @@
         <v>13431.58551523901</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12499,7 +11473,7 @@
         <v>13427.74741523901</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12532,7 +11506,7 @@
         <v>13427.74741523901</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12565,7 +11539,7 @@
         <v>13355.47141523901</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12598,7 +11572,7 @@
         <v>13367.74741523901</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12631,7 +11605,7 @@
         <v>12603.04591523901</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12664,7 +11638,7 @@
         <v>12741.80681523901</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12697,7 +11671,7 @@
         <v>12762.99341523901</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12730,7 +11704,7 @@
         <v>12757.93761523901</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12763,7 +11737,7 @@
         <v>13411.88851523901</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12796,7 +11770,7 @@
         <v>13247.94251523901</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12829,7 +11803,7 @@
         <v>13203.08861523901</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12862,7 +11836,7 @@
         <v>13256.94001523901</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12928,7 +11902,7 @@
         <v>13605.72711523901</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12961,7 +11935,7 @@
         <v>13475.84921523901</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13258,7 +12232,7 @@
         <v>13416.87861523901</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13291,7 +12265,7 @@
         <v>13288.32261523901</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13324,7 +12298,7 @@
         <v>13295.21701523901</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13390,7 +12364,7 @@
         <v>12712.03891523901</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13423,7 +12397,7 @@
         <v>12686.47471523901</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13456,7 +12430,7 @@
         <v>12690.13421523901</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13489,7 +12463,7 @@
         <v>12689.80051523901</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13555,7 +12529,7 @@
         <v>12721.97831523901</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13984,7 +12958,7 @@
         <v>13137.31911523901</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14017,7 +12991,7 @@
         <v>13134.23811523901</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14050,7 +13024,7 @@
         <v>13086.61081523901</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14083,7 +13057,7 @@
         <v>13086.61081523901</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14314,7 +13288,7 @@
         <v>13471.92871523901</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14380,7 +13354,7 @@
         <v>11417.90945467563</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14545,7 +13519,7 @@
         <v>11114.14965467563</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14578,7 +13552,7 @@
         <v>10227.56715467563</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14611,7 +13585,7 @@
         <v>10240.96715467563</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14644,7 +13618,7 @@
         <v>10145.17255467563</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14677,7 +13651,7 @@
         <v>10260.91465467563</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14710,7 +13684,7 @@
         <v>10285.50545467563</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14743,7 +13717,7 @@
         <v>10282.74195467563</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14776,7 +13750,7 @@
         <v>10390.43385467563</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14809,7 +13783,7 @@
         <v>10390.43385467563</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14842,7 +13816,7 @@
         <v>10569.33915467563</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14908,7 +13882,7 @@
         <v>10634.05625467563</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14974,7 +13948,7 @@
         <v>10902.97445467563</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15007,7 +13981,7 @@
         <v>10914.61925467563</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15040,7 +14014,7 @@
         <v>10914.65515467563</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15073,7 +14047,7 @@
         <v>10914.65515467563</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15106,7 +14080,7 @@
         <v>10914.65515467563</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15139,7 +14113,7 @@
         <v>10914.86405467563</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15172,7 +14146,7 @@
         <v>10811.10745467563</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15205,7 +14179,7 @@
         <v>11874.46495467563</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15238,7 +14212,7 @@
         <v>11874.50185467563</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15271,7 +14245,7 @@
         <v>11737.83985467563</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15304,7 +14278,7 @@
         <v>11834.31755467563</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15601,7 +14575,7 @@
         <v>11726.14355467563</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15634,7 +14608,7 @@
         <v>11726.14355467563</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15667,7 +14641,7 @@
         <v>11624.31055467563</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15700,7 +14674,7 @@
         <v>11624.31055467563</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15733,7 +14707,7 @@
         <v>11665.08295467563</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15766,7 +14740,7 @@
         <v>11658.18645467563</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15799,7 +14773,7 @@
         <v>11594.01415467563</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15832,7 +14806,7 @@
         <v>11594.01415467563</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15865,7 +14839,7 @@
         <v>11540.97375467563</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15898,7 +14872,7 @@
         <v>11394.49615467563</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15931,7 +14905,7 @@
         <v>11394.49615467563</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15964,7 +14938,7 @@
         <v>11410.71575467563</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15997,7 +14971,7 @@
         <v>11410.71575467563</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16030,7 +15004,7 @@
         <v>11406.29495467563</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16063,7 +15037,7 @@
         <v>11406.29495467563</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16096,7 +15070,7 @@
         <v>11407.29495467563</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16129,7 +15103,7 @@
         <v>11364.46445467563</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16162,7 +15136,7 @@
         <v>11364.46445467563</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16195,7 +15169,7 @@
         <v>11476.96455467563</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16228,7 +15202,7 @@
         <v>11473.96455467563</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16261,7 +15235,7 @@
         <v>11473.96455467563</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16294,7 +15268,7 @@
         <v>11473.96455467563</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16327,7 +15301,7 @@
         <v>11471.96455467563</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16360,7 +15334,7 @@
         <v>11401.40175467563</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16393,7 +15367,7 @@
         <v>11883.10725467563</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16426,7 +15400,7 @@
         <v>11837.76805467563</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16459,7 +15433,7 @@
         <v>11903.76805467563</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16492,7 +15466,7 @@
         <v>11875.13925467563</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16525,7 +15499,7 @@
         <v>11818.53965467563</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16558,7 +15532,7 @@
         <v>11824.7923127216</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16591,7 +15565,7 @@
         <v>11794.7923127216</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16624,7 +15598,7 @@
         <v>11794.8323127216</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16657,7 +15631,7 @@
         <v>11794.8323127216</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16690,7 +15664,7 @@
         <v>11794.4223127216</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16723,7 +15697,7 @@
         <v>11766.0873127216</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16954,7 +15928,7 @@
         <v>13047.21431272161</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16987,7 +15961,7 @@
         <v>13047.21431272161</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17086,7 +16060,7 @@
         <v>12984.04901272161</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18142,7 +17116,7 @@
         <v>12060.99374024758</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18208,7 +17182,7 @@
         <v>12073.05894024758</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18406,7 +17380,7 @@
         <v>12075.01597112951</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18439,7 +17413,7 @@
         <v>12064.77157112951</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18472,7 +17446,7 @@
         <v>11884.72657112951</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18505,7 +17479,7 @@
         <v>11884.72657112951</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18538,7 +17512,7 @@
         <v>11994.58747112951</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18571,7 +17545,7 @@
         <v>11994.58747112951</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18604,7 +17578,7 @@
         <v>12036.42927112951</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18637,7 +17611,7 @@
         <v>11945.04777112951</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18670,7 +17644,7 @@
         <v>11945.04777112951</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18901,7 +17875,7 @@
         <v>11945.04777112951</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19000,7 +17974,7 @@
         <v>12151.89527112951</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19033,7 +18007,7 @@
         <v>12152.89527112951</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19066,7 +18040,7 @@
         <v>12152.89527112951</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19099,7 +18073,7 @@
         <v>12152.89527112951</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19132,7 +18106,7 @@
         <v>12170.58407112951</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19165,7 +18139,7 @@
         <v>12173.84147112951</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19198,7 +18172,7 @@
         <v>12270.59724575424</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19231,7 +18205,7 @@
         <v>11838.66234575424</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19264,7 +18238,7 @@
         <v>11870.01874575424</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19297,7 +18271,7 @@
         <v>11159.05532037897</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19330,7 +18304,7 @@
         <v>11280.14942037897</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19363,7 +18337,7 @@
         <v>11310.64822037897</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19396,7 +18370,7 @@
         <v>11310.64822037897</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19429,7 +18403,7 @@
         <v>11310.64822037897</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19462,7 +18436,7 @@
         <v>11310.46822037897</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19495,7 +18469,7 @@
         <v>11480.04782037897</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19528,7 +18502,7 @@
         <v>11406.10442037897</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19561,7 +18535,7 @@
         <v>11471.26502037897</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19594,7 +18568,7 @@
         <v>11471.26502037897</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19627,7 +18601,7 @@
         <v>11471.26502037897</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19660,7 +18634,7 @@
         <v>11507.25252037897</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19693,7 +18667,7 @@
         <v>11507.25252037897</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19726,7 +18700,7 @@
         <v>11530.05252037897</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19759,7 +18733,7 @@
         <v>11682.33152037897</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19792,7 +18766,7 @@
         <v>11504.59624352062</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19825,7 +18799,7 @@
         <v>11742.7140928281</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19858,7 +18832,7 @@
         <v>11457.48216485026</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19891,7 +18865,7 @@
         <v>11229.98026485026</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19924,7 +18898,7 @@
         <v>11097.20236485026</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19957,7 +18931,7 @@
         <v>11231.96016485026</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19990,7 +18964,7 @@
         <v>12287.60896485026</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20023,7 +18997,7 @@
         <v>12114.78996485026</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20056,7 +19030,7 @@
         <v>12369.64916485027</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20089,7 +19063,7 @@
         <v>12164.33406485027</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20122,7 +19096,7 @@
         <v>11966.61586485027</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20155,7 +19129,7 @@
         <v>12057.82986485027</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20188,7 +19162,7 @@
         <v>12288.03376485027</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20221,7 +19195,7 @@
         <v>12356.49506485027</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20254,7 +19228,7 @@
         <v>12031.22766485027</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20287,7 +19261,7 @@
         <v>12290.85836485027</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20320,7 +19294,7 @@
         <v>12267.01736485027</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20353,7 +19327,7 @@
         <v>12329.26696485027</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20386,7 +19360,7 @@
         <v>12226.02176485027</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20419,7 +19393,7 @@
         <v>12330.88346485027</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20452,7 +19426,7 @@
         <v>12330.88346485027</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20485,7 +19459,7 @@
         <v>12330.88346485027</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20518,7 +19492,7 @@
         <v>12174.22656485027</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20551,7 +19525,7 @@
         <v>12159.31836485027</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20584,7 +19558,7 @@
         <v>12159.31836485027</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20617,7 +19591,7 @@
         <v>12155.19836485026</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20650,7 +19624,7 @@
         <v>11441.86086485026</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20683,7 +19657,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20716,7 +19690,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20749,7 +19723,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20782,7 +19756,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20815,7 +19789,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20848,7 +19822,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20881,7 +19855,7 @@
         <v>11288.58406485027</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20914,7 +19888,7 @@
         <v>11107.47316485027</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20947,7 +19921,7 @@
         <v>11107.47316485027</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20980,7 +19954,7 @@
         <v>10841.72866485026</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21013,7 +19987,7 @@
         <v>10790.58326485027</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21046,7 +20020,7 @@
         <v>10588.29756485027</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21079,7 +20053,7 @@
         <v>10629.20116485026</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21112,7 +20086,7 @@
         <v>10629.20116485026</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21145,7 +20119,7 @@
         <v>10524.53736485026</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21178,7 +20152,7 @@
         <v>10525.37546485027</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21211,7 +20185,7 @@
         <v>10308.24226485027</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21244,7 +20218,7 @@
         <v>10313.28906485027</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21277,7 +20251,7 @@
         <v>10308.28916485026</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21310,7 +20284,7 @@
         <v>10312.55486485026</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21343,7 +20317,7 @@
         <v>10362.55496485026</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21376,7 +20350,7 @@
         <v>10397.22786485026</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21409,7 +20383,7 @@
         <v>10375.79576485026</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21442,7 +20416,7 @@
         <v>9730.061664850264</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21475,7 +20449,7 @@
         <v>9751.085964850263</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21508,7 +20482,7 @@
         <v>9573.665464850263</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21541,7 +20515,7 @@
         <v>9621.535364850262</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21574,7 +20548,7 @@
         <v>9810.660764850263</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21607,7 +20581,7 @@
         <v>9810.660764850263</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21640,7 +20614,7 @@
         <v>9826.915764850262</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21706,7 +20680,7 @@
         <v>9675.959564850264</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21772,7 +20746,7 @@
         <v>10111.11956485026</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21805,7 +20779,7 @@
         <v>10111.11956485026</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21838,7 +20812,7 @@
         <v>10165.46823654301</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21871,7 +20845,7 @@
         <v>10165.46823654301</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21904,7 +20878,7 @@
         <v>10165.46823654301</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21937,7 +20911,7 @@
         <v>10165.46823654301</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21970,7 +20944,7 @@
         <v>10161.14533654301</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22036,7 +21010,7 @@
         <v>10123.72323654301</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22069,7 +21043,7 @@
         <v>10145.48363654301</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22102,7 +21076,7 @@
         <v>10137.38213654301</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23664,6 +22638,6 @@
       <c r="M660" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>